--- a/Credentials.xlsx
+++ b/Credentials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKI TRANSFERS\IdeaProjects\finalProjectITBC20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333A4D3F-8CBB-4138-8448-13993BFB2361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACEC22D-0ED2-4C0D-9AFB-270968AD2BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Accepted usernames</t>
   </si>
@@ -71,6 +71,21 @@
   </si>
   <si>
     <t>standard</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>Last name</t>
+  </si>
+  <si>
+    <t>Zip/Postal</t>
+  </si>
+  <si>
+    <t>Pera</t>
+  </si>
+  <si>
+    <t>Peric</t>
   </si>
 </sst>
 </file>
@@ -389,7 +404,7 @@
   <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -413,9 +428,15 @@
       <c r="D1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="E1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
@@ -449,6 +470,15 @@
       <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2">
+        <v>11000</v>
+      </c>
     </row>
     <row r="3" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
